--- a/biology/Histoire de la zoologie et de la botanique/Dmitri_Ivanovski/Dmitri_Ivanovski.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Dmitri_Ivanovski/Dmitri_Ivanovski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dmitri Iossifovitch Ivanovski (en russe : Дмитрий Иосифович Ивановский), né le 9 novembre 1864 et mort le 20 avril 1920 à Rostov-sur-le-Don, est un biologiste et botaniste russe. En mettant en évidence les propriétés du virus de la mosaïque du tabac, il est en quelque sorte le premier à découvrir les virus (1892). Il montra que la sève des plants de tabac malades contenait un agent infectieux qui n’était pas retenu par le filtre Chamberland. Ivanovski pensait à l’époque qu’il s’agissait d’une toxine ou bien d’une très petite bactérie.
 </t>
